--- a/templates/dataplant/MIAPPE_rooting_conditions.xlsx
+++ b/templates/dataplant/MIAPPE_rooting_conditions.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1053" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DED4005-628D-45E4-8675-B1D5F624C941}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDA0396-E021-447D-B66A-9A4AB67090C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>Source Name</t>
   </si>
@@ -493,6 +498,9 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
   </si>
 </sst>
 </file>
@@ -508,7 +516,7 @@
     <numFmt numFmtId="169" formatCode="0.00\ &quot;Pa m-2&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00\ &quot;g g-1 dry weight&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,7 +754,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -1283,53 +1291,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="44.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="50.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="35.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="64.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="114.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="114.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="44.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="35.88671875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="64.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="114.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="114.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.44140625" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="136" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="136" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="34.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="38" max="39" width="164.42578125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="164.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="60.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.42578125" hidden="1" customWidth="1"/>
-    <col min="46" max="47" width="44.28515625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.88671875" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="164.44140625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="164.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="60.6640625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.44140625" hidden="1" customWidth="1"/>
+    <col min="46" max="47" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1567,7 +1575,7 @@
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
@@ -1645,7 +1653,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
@@ -1737,17 +1745,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6DD551-DA08-4112-AD2B-540BC0A760A5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>83</v>
       </c>
@@ -1755,7 +1763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>85</v>
       </c>
@@ -1763,7 +1771,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>87</v>
       </c>
@@ -1771,7 +1779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50.25" customHeight="1">
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>89</v>
       </c>
@@ -1779,13 +1787,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="22"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>92</v>
       </c>
@@ -1793,37 +1803,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="24"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="23"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>99</v>
       </c>
@@ -1834,25 +1844,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="22"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="22"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="23"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>105</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>108</v>
       </c>
@@ -1874,13 +1884,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="22"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>112</v>
       </c>
@@ -1891,25 +1901,25 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="22"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B22" s="22"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>118</v>
       </c>
@@ -1920,25 +1930,25 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="22"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>123</v>
       </c>
